--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>供应商名称</t>
   </si>
@@ -154,6 +154,54 @@
   </si>
   <si>
     <t>${taxAmountTotal}</t>
+  </si>
+  <si>
+    <t>{.xh}</t>
+  </si>
+  <si>
+    <t>中文{.jpCode}No.{.xh}追加内容{.num}</t>
+  </si>
+  <si>
+    <t>{.jpName}</t>
+  </si>
+  <si>
+    <t>{.num}</t>
+  </si>
+  <si>
+    <t>{.price}</t>
+  </si>
+  <si>
+    <t>{.amount}</t>
+  </si>
+  <si>
+    <t>{.tax}</t>
+  </si>
+  <si>
+    <t>{.taxPrice}</t>
+  </si>
+  <si>
+    <t>{.taxAmount}</t>
+  </si>
+  <si>
+    <t>{.remark}</t>
+  </si>
+  <si>
+    <t>{nums}</t>
+  </si>
+  <si>
+    <t>{priceTotal}</t>
+  </si>
+  <si>
+    <t>{amountTotal}</t>
+  </si>
+  <si>
+    <t>{taxTotal}</t>
+  </si>
+  <si>
+    <t>{taxPriceTotal}</t>
+  </si>
+  <si>
+    <t>{taxAmountTotal}</t>
   </si>
 </sst>
 </file>
@@ -226,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,31 +311,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,197 +628,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -783,13 +837,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -832,14 +886,14 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
@@ -858,14 +912,27 @@
       <c r="L11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -882,19 +949,6 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -903,14 +957,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>供应商名称</t>
   </si>
@@ -202,6 +202,36 @@
   </si>
   <si>
     <t>{taxAmountTotal}</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>简历原件</t>
+  </si>
+  <si>
+    <t>${name}</t>
+  </si>
+  <si>
+    <t>${age}</t>
+  </si>
+  <si>
+    <t>${@media:pic}</t>
+  </si>
+  <si>
+    <t>${@link:jumpUrl}</t>
+  </si>
+  <si>
+    <t>${@list:sex}</t>
   </si>
 </sst>
 </file>
@@ -212,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;0.00_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +281,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文行楷"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,13 +337,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right style="dashed">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="dashed">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="double">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +414,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,20 +447,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -628,25 +743,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
@@ -730,95 +845,95 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -837,13 +952,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -886,14 +1001,14 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
@@ -912,27 +1027,14 @@
       <c r="L11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -949,6 +1051,19 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -974,76 +1089,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="30">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
@@ -1062,13 +1177,13 @@
       <c r="L3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
@@ -1111,14 +1226,14 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1137,11 +1252,11 @@
       <c r="L6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1168,13 +1283,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickTop="1">
+      <c r="A1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="108" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="简单模板" sheetId="1" r:id="rId1"/>
+    <sheet name="混合命名空间" sheetId="4" r:id="rId2"/>
+    <sheet name="内置函数" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -159,12 +159,6 @@
     <t>{.xh}</t>
   </si>
   <si>
-    <t>中文{.jpCode}No.{.xh}追加内容{.num}</t>
-  </si>
-  <si>
-    <t>{.jpName}</t>
-  </si>
-  <si>
     <t>{.num}</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>${@list:sex}</t>
+  </si>
+  <si>
+    <t>{cName}-{.jpName}</t>
+  </si>
+  <si>
+    <t>{cCode}-{.jpCode}追加{.num}</t>
   </si>
 </sst>
 </file>
@@ -420,44 +420,44 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +729,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -743,197 +743,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="20" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -952,13 +952,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -1001,14 +1001,14 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
@@ -1027,14 +1027,27 @@
       <c r="L11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -1051,19 +1064,6 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1089,101 +1089,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="30">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="H3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
@@ -1226,37 +1226,37 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1298,36 +1298,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" thickTop="1">
       <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="108" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="E2" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -12,29 +12,707 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="简单模板" sheetId="1" r:id="rId1"/>
-    <sheet name="混合命名空间" sheetId="4" r:id="rId2"/>
-    <sheet name="内置函数" sheetId="3" r:id="rId3"/>
+    <sheet name="简单模板" sheetId="4" r:id="rId1"/>
+    <sheet name="混合命名空间" sheetId="1" r:id="rId2"/>
+    <sheet name="复杂模板" sheetId="6" r:id="rId3"/>
+    <sheet name="内置函数" sheetId="3" r:id="rId4"/>
+    <sheet name="多Table组合" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">简单模板!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+    <author>Stone CL.</author>
+    <author>CL.Stone</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+贵司内部订单号或者快递单号，或者FBA单号都可
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果有一票多个FBA号码一起发货，多出的FBA号请填写在C12备注栏！
+如FBA123456788
+（注意，不要U）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+货物准备交我司哪个仓库
+如果交惠州仓和厦门仓，请在D12备注栏说明：交惠州仓或交厦门仓
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+开户账号 
+如没有可联系客服</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写贵司的系统登录账号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单票清关:是欧洲不包税渠道，单票不包税清关;
+合并清关：几票合在一起清关（必须在C12备注栏写清楚哪几票合并）
+美国清关：美国的所有渠道都选择美国清关！
+包税：非美国的其他包税渠道
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写贵司的系统登录账号
+如无请找专属客服索取
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买单报关：一般是不具备出口权，不具备出口退税的条件，不需要国内退税的企业
+单独报关：国内需要退税的企业，需要提供报关资料（包含报关单 发票委托书 装箱单 申报要素等   
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请按以下标准填写：
+英国按kg计费，全部填写英国；
+英国按卡派计费，填写亚马逊仓库代码（非亚马逊地址除外）
+美国海派、空运，按报价表的分区填写美西，美中，美东，FTW1属于美中填写FTW1作为目的国
+美国卡派：填写亚马逊仓库代码（非亚马逊地址除外）
+其他未列明国家 ，直接填写国家！（中文）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自用VAT清关必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自用VAT清关必填
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+【必填】如果是亚马逊地址，必填亚马逊仓库代码；
+如果不是亚马逊地址，可不填
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+【必填】如果是亚马逊地址，必填亚马逊仓库代码；
+如果是非亚马逊地址，可不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自用VAT清关必填
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自用VAT清关必填
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+亚马逊地址可不填
+非亚马逊地址必填！！！
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+亚马逊地址可不填或填贵司国内联系方式
+非亚马逊地址必填！！！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+需要填写邮箱的渠道有：
+1，比利时递延海运快递派
+2，比利时递延海运卡派
+3，美国海运卡派私人地址/海外仓地址</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填外箱的FBA子单号（必须是19位）
+按箱填写！
+一箱货有多个产品，箱号重复填写即可
+非亚马逊地址本身没箱号的 ，可以直接写箱号，如1，2，3……
+不允许合并！！！不允许有回车！！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+8位数的追踪编码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>货物描述，相对精准的描述。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+产品大类：带电,带磁,纺织品等,普货直接输入普货两个字即可
+注意:多个类型注意用英文逗号隔开</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+切记！一定是单箱的产品数量！！！！！！
+不管任何情况下，这里都是填写单箱的产品数量！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填货物的单位CTN，即货物的箱数
+有多少箱就填多少箱，如果是混装产品对应箱数都写1
+不得合并单元格！
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+英国空运/海运/铁路（英镑），
+德国（欧元），
+美国（美金）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须填写纯数字 不得有其他字符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>货物的高清图片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+【必填】报价表上有要求提供销售链接的渠道</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+更多其他需要说明的问题 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+混装 箱号一样即可
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
   <si>
     <t>供应商名称</t>
   </si>
@@ -138,66 +816,6 @@
     <t>${YzEntity.remark}</t>
   </si>
   <si>
-    <t>${nums}</t>
-  </si>
-  <si>
-    <t>${priceTotal}</t>
-  </si>
-  <si>
-    <t>${amountTotal}</t>
-  </si>
-  <si>
-    <t>${taxTotal}</t>
-  </si>
-  <si>
-    <t>${taxPriceTotal}</t>
-  </si>
-  <si>
-    <t>${taxAmountTotal}</t>
-  </si>
-  <si>
-    <t>{.xh}</t>
-  </si>
-  <si>
-    <t>{.num}</t>
-  </si>
-  <si>
-    <t>{.price}</t>
-  </si>
-  <si>
-    <t>{.amount}</t>
-  </si>
-  <si>
-    <t>{.tax}</t>
-  </si>
-  <si>
-    <t>{.taxPrice}</t>
-  </si>
-  <si>
-    <t>{.taxAmount}</t>
-  </si>
-  <si>
-    <t>{.remark}</t>
-  </si>
-  <si>
-    <t>{nums}</t>
-  </si>
-  <si>
-    <t>{priceTotal}</t>
-  </si>
-  <si>
-    <t>{amountTotal}</t>
-  </si>
-  <si>
-    <t>{taxTotal}</t>
-  </si>
-  <si>
-    <t>{taxPriceTotal}</t>
-  </si>
-  <si>
-    <t>{taxAmountTotal}</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -228,41 +846,550 @@
     <t>${@list:sex}</t>
   </si>
   <si>
-    <t>{cName}-{.jpName}</t>
-  </si>
-  <si>
-    <t>{cCode}-{.jpCode}追加{.num}</t>
+    <t>客户原单号：（必填）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FBA号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（填写FBA主单号 12位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>导入模板版本号:</t>
+  </si>
+  <si>
+    <t>务必填写规范：(只做内容填充，不允许调整格式，不允许合并单元格，填写内容不允许有空格。)</t>
+  </si>
+  <si>
+    <t>交货仓库：（必填）</t>
+  </si>
+  <si>
+    <t>是否购买保险 （选填）：</t>
+  </si>
+  <si>
+    <t>注意：表格中蓝色内容为必填项，黄色内容为选填项      
+备注：1，成套的产品需注明单套包含的件数以及品名；      
+2，垫子类、纸盒支架类需提供规格（如尺寸和高度），请填写到C12栏备注下      
+3，图片请提供高清的（再缩放到单元格）；      
+4、申报币种必须匹配：英国空运/海运/铁路（英镑），德国（欧元），美国（美金）--也可参考表格2      
+5、一箱货有多个产品，箱号重复填写即可      
+6、备注栏：C12栏备注下单特殊需求，例如备注和哪票货合并清关；U17栏备注产品信息，例如部分产品单独报关</t>
+  </si>
+  <si>
+    <t>填写范本 请参考</t>
+  </si>
+  <si>
+    <t>交货客户代号：（必填）</t>
+  </si>
+  <si>
+    <t>清关方式（必填）：</t>
+  </si>
+  <si>
+    <t>走货线路：（必填）</t>
+  </si>
+  <si>
+    <t>发件人公司：</t>
+  </si>
+  <si>
+    <t>报关方式：（必填）</t>
+  </si>
+  <si>
+    <t>发件人地址：</t>
+  </si>
+  <si>
+    <t>目的地/国家：（必填）</t>
+  </si>
+  <si>
+    <t>VAT和EORI注册公司名：</t>
+  </si>
+  <si>
+    <t>地址类型*（必填）</t>
+  </si>
+  <si>
+    <t>VAT和EORI注册地址：</t>
+  </si>
+  <si>
+    <t>收货地址名称/亚马逊仓库代码*</t>
+  </si>
+  <si>
+    <t>VAT号：*</t>
+  </si>
+  <si>
+    <t>收件公司（选填）：</t>
+  </si>
+  <si>
+    <t>EORI号：*</t>
+  </si>
+  <si>
+    <t>收件人（选填） ：</t>
+  </si>
+  <si>
+    <t>VAT公司联系人：</t>
+  </si>
+  <si>
+    <t>联系电话 （选填）：</t>
+  </si>
+  <si>
+    <t>VAT公司电话：</t>
+  </si>
+  <si>
+    <t>收件邮编：（必填）</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>可以备注预计几号送仓或交惠州仓，厦门仓等；如有合并清关或者合并报关，需要明确哪几票合并</t>
+  </si>
+  <si>
+    <t>省份/州（选填）：</t>
+  </si>
+  <si>
+    <t>收件人邮箱（填写要求请看批注！）</t>
+  </si>
+  <si>
+    <t>请看批注！部分走货渠道必填！</t>
+  </si>
+  <si>
+    <t>城市（必填）：</t>
+  </si>
+  <si>
+    <t>自营海外仓库</t>
+  </si>
+  <si>
+    <t>收件地址：（必填）</t>
+  </si>
+  <si>
+    <t>总件数（必填）</t>
+  </si>
+  <si>
+    <t>不得删除！</t>
+  </si>
+  <si>
+    <t>亚马逊FBA子单号/箱唛号（必填）（FBA号正确19位）</t>
+  </si>
+  <si>
+    <t>Reference ID（亚马逊追踪编码）</t>
+  </si>
+  <si>
+    <t>中文品名（必填）</t>
+  </si>
+  <si>
+    <t>英文品名（必填）</t>
+  </si>
+  <si>
+    <t>材质（中英文填写）（必填）</t>
+  </si>
+  <si>
+    <t>用途（中英文填写）（必填）</t>
+  </si>
+  <si>
+    <t>国外海关编码（必填）</t>
+  </si>
+  <si>
+    <t>产品类型/属性</t>
+  </si>
+  <si>
+    <t>箱数/件数CTN（必填）</t>
+  </si>
+  <si>
+    <t>申报单价币种（必填）</t>
+  </si>
+  <si>
+    <t>单个产品申报单价</t>
+  </si>
+  <si>
+    <t>单个产品净重KG(必填)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品高清图片                       （</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须缩在方框内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">品牌           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（如实申报）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">品牌类型             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（如实申报）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">型号            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（如实申报）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">销售链接                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（填写链接的前后不能有空格）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（产品的其他特殊说明）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">总产品数量            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">总申报金额            </t>
+  </si>
+  <si>
+    <t>SKUNO</t>
+  </si>
+  <si>
+    <t>实重</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>B19928-002</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>${originOrderNo}</t>
+  </si>
+  <si>
+    <t>${custCode}</t>
+  </si>
+  <si>
+    <t>${stockCode}</t>
+  </si>
+  <si>
+    <t>${version}</t>
+  </si>
+  <si>
+    <t>${list.fbaNo}</t>
+  </si>
+  <si>
+    <t>${masterFbaNo}</t>
+  </si>
+  <si>
+    <t>${list.referenceId}</t>
+  </si>
+  <si>
+    <t>${list.productName}</t>
+  </si>
+  <si>
+    <t>${list.productNameEn}</t>
+  </si>
+  <si>
+    <t>${list.material}</t>
+  </si>
+  <si>
+    <t>${list.useTo}</t>
+  </si>
+  <si>
+    <t>${list.productType}</t>
+  </si>
+  <si>
+    <t>${list.customsCode}</t>
+  </si>
+  <si>
+    <r>
+      <t>单箱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品数量PCS（必填）</t>
+    </r>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>abc{data1.name}123{key}</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>{data1.number}</t>
+  </si>
+  <si>
+    <t>{data1.name}</t>
+  </si>
+  <si>
+    <t>时间：{date}</t>
+  </si>
+  <si>
+    <t>{data2.name}</t>
+  </si>
+  <si>
+    <t>{data2.number}</t>
+  </si>
+  <si>
+    <t>描述行</t>
+  </si>
+  <si>
+    <t>{data3.name}</t>
+  </si>
+  <si>
+    <t>{data3.number}</t>
+  </si>
+  <si>
+    <t>无它</t>
+  </si>
+  <si>
+    <t>合计：</t>
+  </si>
+  <si>
+    <t>&lt;-文本行</t>
+  </si>
+  <si>
+    <t>${summary.nums}</t>
+  </si>
+  <si>
+    <t>${summary.priceTotal}</t>
+  </si>
+  <si>
+    <t>${summary.amountTotal}</t>
+  </si>
+  <si>
+    <t>${summary.taxPriceTotal}</t>
+  </si>
+  <si>
+    <t>${summary.taxAmountTotal}</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>是否满30级</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>${channel}</t>
+  </si>
+  <si>
+    <t>${game}</t>
+  </si>
+  <si>
+    <t>${account}</t>
+  </si>
+  <si>
+    <t>${date}</t>
+  </si>
+  <si>
+    <t>${vip}</t>
+  </si>
+  <si>
+    <t>${isAdult}</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>${summary.taxTotal}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;0.00_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,6 +1401,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +1456,250 @@
       <name val="华文行楷"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正舒体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +1712,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -365,13 +1779,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="9"/>
+      </left>
+      <right style="double">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,45 +1896,243 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -459,12 +2145,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF70AD47"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,6 +2188,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 4" descr="0944c808d8fd3bc27edbd51a1b582cf"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10887075" y="723900"/>
+          <a:ext cx="6829425" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,10 +2513,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1">
+      <c r="A2" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -743,197 +2597,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -952,13 +2806,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -1000,38 +2854,38 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="45">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:19" ht="60">
+      <c r="A11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="9" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1070,222 +2924,724 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="12" width="8.5703125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="34.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="61" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" style="61" customWidth="1"/>
+    <col min="8" max="13" width="10.7109375" style="61" customWidth="1"/>
+    <col min="14" max="14" width="20" style="61" customWidth="1"/>
+    <col min="15" max="17" width="10.7109375" style="61" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="61" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="61" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="61" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="65"/>
+    <col min="23" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="G1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" s="27" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+    </row>
+    <row r="14" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+    </row>
+    <row r="15" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="29"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="26" customFormat="1" ht="69" customHeight="1">
+      <c r="A17" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="X17" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y17" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="60" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A18" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="57">
         <v>10</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:19" ht="30">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="45">
-      <c r="A6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
+      <c r="J18" s="57">
+        <v>1</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="57">
+        <v>10</v>
+      </c>
+      <c r="M18" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="56"/>
+      <c r="S18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="T18" s="59">
+        <f t="shared" ref="T18" si="0">I18*J18</f>
+        <v>10</v>
+      </c>
+      <c r="U18" s="59">
+        <f t="shared" ref="U18" si="1">T18*L18</f>
+        <v>100</v>
+      </c>
+      <c r="V18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="W18" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z18" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="63" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64">
+        <f>SUM(T18:T18)</f>
+        <v>10</v>
+      </c>
+      <c r="U19" s="64">
+        <f>SUM(U18:U18)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="21" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="22" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="23" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="24" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="25" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="26" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="27" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="28" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="29" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="30" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="31" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="32" spans="1:26" ht="77.099999999999994" customHeight="1"/>
+    <row r="33" ht="77.099999999999994" customHeight="1"/>
+    <row r="34" ht="77.099999999999994" customHeight="1"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="3">
+    <mergeCell ref="E2:F11"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+      <formula1>"自营德国海外仓,美国自营海外仓"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F13">
+      <formula1>$F$10:$F$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"亚马逊地址,海外仓地址,商业地址,私人地址,监管仓地址,自营海外仓"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"买单报关,单独报关,合并单独报关"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"不包税,包税,合并清关"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"广州1仓,坂田1仓,福永1仓,中山1仓,厦门1仓"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>"无,境内自主品牌,境内收购品牌,境外品牌(贴牌生产),境外品牌(其他)"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填写数字" sqref="M1">
+      <formula1>0</formula1>
+      <formula2>2000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填数字" sqref="L1">
+      <formula1>0.00001</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"美金,英镑,欧元"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+      <formula1>1</formula1>
+      <formula2>11111111</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>1</formula1>
+      <formula2>9999999999999990</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="H1">
+      <formula1>"普货,带木,带电,带电带磁,带磁,带液体,带膏体,带皮革,带干燥剂,带酒精棉"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"英国海外仓中转VAT卡航,英国海外仓中转PVA卡航,DPD中英卡航打单,美国FBA测试渠道"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="50" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1297,37 +3653,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" thickTop="1">
-      <c r="A1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>58</v>
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="108" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>62</v>
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,4 +3691,124 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="90"/>
+      <c r="B2" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="90"/>
+      <c r="B3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="90"/>
+      <c r="B4" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="92"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24">
+      <c r="A9" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="73"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
   <si>
     <t>供应商名称</t>
   </si>
@@ -1278,45 +1278,12 @@
     </r>
   </si>
   <si>
-    <t>统计</t>
-  </si>
-  <si>
-    <t>abc{data1.name}123{key}</t>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>{data1.number}</t>
-  </si>
-  <si>
-    <t>{data1.name}</t>
-  </si>
-  <si>
-    <t>时间：{date}</t>
-  </si>
-  <si>
-    <t>{data2.name}</t>
-  </si>
-  <si>
-    <t>{data2.number}</t>
-  </si>
-  <si>
     <t>描述行</t>
   </si>
   <si>
-    <t>{data3.name}</t>
-  </si>
-  <si>
-    <t>{data3.number}</t>
-  </si>
-  <si>
     <t>无它</t>
   </si>
   <si>
-    <t>合计：</t>
-  </si>
-  <si>
     <t>&lt;-文本行</t>
   </si>
   <si>
@@ -1372,6 +1339,33 @@
   </si>
   <si>
     <t>${summary.taxTotal}</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>{game}</t>
+  </si>
+  <si>
+    <t>{level}</t>
+  </si>
+  <si>
+    <t>{channel}</t>
+  </si>
+  <si>
+    <t>{account}</t>
+  </si>
+  <si>
+    <t>{date}</t>
+  </si>
+  <si>
+    <t>{isAdult}</t>
+  </si>
+  <si>
+    <t>{vip}</t>
+  </si>
+  <si>
+    <t>平均等级：{avgLevel}</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1378,7 @@
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;0.00_)"/>
     <numFmt numFmtId="167" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,13 +1672,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="方正舒体"/>
@@ -1698,8 +1685,48 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="隶书"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="华文彩云"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="华文新魏"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Britannic Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,18 +1759,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1808,21 +1841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color theme="9"/>
-      </left>
-      <right style="double">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
@@ -1859,7 +1877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2082,40 +2100,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2155,17 +2149,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2195,21 +2204,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>6523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 4" descr="0944c808d8fd3bc27edbd51a1b582cf"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2220,42 +2229,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10887075" y="723900"/>
-          <a:ext cx="6829425" cy="4467225"/>
+          <a:off x="10858500" y="721178"/>
+          <a:ext cx="6898821" cy="4347202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2532,43 +2517,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>149</v>
+      <c r="B1" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1">
-      <c r="A2" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>154</v>
+      <c r="A2" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -2597,197 +2582,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="82" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="82" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="84" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2806,13 +2791,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="78" t="s">
+      <c r="M8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -2855,37 +2840,37 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
+        <v>134</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2928,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -2993,20 +2978,20 @@
         <v>49</v>
       </c>
       <c r="D2" s="29"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -3025,8 +3010,8 @@
         <v>53</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
@@ -3042,8 +3027,8 @@
         <v>55</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -3068,8 +3053,8 @@
         <v>57</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -3094,8 +3079,8 @@
         <v>59</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3120,8 +3105,8 @@
         <v>61</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3148,8 +3133,8 @@
         <v>63</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3173,8 +3158,8 @@
         <v>65</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3199,8 +3184,8 @@
         <v>67</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -3225,8 +3210,8 @@
         <v>69</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="J11" s="39"/>
@@ -3250,10 +3235,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -3695,118 +3680,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="90" t="s">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A2" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24">
+      <c r="A3" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1">
+      <c r="D7" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="90"/>
-      <c r="B2" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="90"/>
-      <c r="B3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="90"/>
-      <c r="B4" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="92"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24">
-      <c r="A9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="70" t="s">
+    <row r="13" spans="1:6" ht="27" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="73"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="71" t="s">
+      <c r="C13" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E13" s="67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="70" t="s">
+      <c r="F13" s="67" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="多Table组合" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">多Table组合!$A$13:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">简单模板!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -712,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
   <si>
     <t>供应商名称</t>
   </si>
@@ -1344,28 +1345,40 @@
     <t>等级</t>
   </si>
   <si>
-    <t>{game}</t>
-  </si>
-  <si>
-    <t>{level}</t>
-  </si>
-  <si>
-    <t>{channel}</t>
-  </si>
-  <si>
-    <t>{account}</t>
-  </si>
-  <si>
-    <t>{date}</t>
-  </si>
-  <si>
-    <t>{isAdult}</t>
-  </si>
-  <si>
-    <t>{vip}</t>
-  </si>
-  <si>
-    <t>平均等级：{avgLevel}</t>
+    <t>{t1.game}</t>
+  </si>
+  <si>
+    <t>{t2.game}</t>
+  </si>
+  <si>
+    <t>{t3.channel}</t>
+  </si>
+  <si>
+    <t>{t3.game}</t>
+  </si>
+  <si>
+    <t>{t3.account}</t>
+  </si>
+  <si>
+    <t>{t3.date}</t>
+  </si>
+  <si>
+    <t>{t3.isAdult}</t>
+  </si>
+  <si>
+    <t>{t3.vip}</t>
+  </si>
+  <si>
+    <t>表格2</t>
+  </si>
+  <si>
+    <t>{t2.account}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均等级：{avgLevel} </t>
+  </si>
+  <si>
+    <t>v{t1.level}</t>
   </si>
 </sst>
 </file>
@@ -1376,9 +1389,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;0.00_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,11 +1735,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bell MT"/>
-      <family val="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,8 +1801,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="180">
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="1" right="1">
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="6"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF227447"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1868,6 +1954,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1877,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2112,6 +2254,51 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2149,32 +2336,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2185,6 +2360,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF227447"/>
       <color rgb="FF70AD47"/>
     </mruColors>
   </colors>
@@ -2546,7 +2722,7 @@
       <c r="C2" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="70" t="s">
         <v>142</v>
       </c>
       <c r="E2" s="68" t="s">
@@ -2568,7 +2744,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2582,197 +2758,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="74" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="74" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="76" t="s">
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2791,13 +2967,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="70" t="s">
+      <c r="M8" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -2840,14 +3016,14 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="9" t="s">
         <v>130</v>
       </c>
@@ -2866,11 +3042,11 @@
       <c r="L11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2913,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -2978,20 +3154,20 @@
         <v>49</v>
       </c>
       <c r="D2" s="29"/>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -3010,8 +3186,8 @@
         <v>53</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
@@ -3027,8 +3203,8 @@
         <v>55</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -3053,8 +3229,8 @@
         <v>57</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -3079,8 +3255,8 @@
         <v>59</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3105,8 +3281,8 @@
         <v>61</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3133,8 +3309,8 @@
         <v>63</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3158,8 +3334,8 @@
         <v>65</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3184,8 +3360,8 @@
         <v>67</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -3210,8 +3386,8 @@
         <v>69</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="J11" s="39"/>
@@ -3235,10 +3411,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -3682,7 +3858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3694,49 +3872,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>150</v>
+      <c r="B3" s="71" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="C5" s="66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="84"/>
+    <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="D6" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="75" t="s">
         <v>150</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3745,48 +3927,50 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="80" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="C14" s="77" t="s">
         <v>153</v>
       </c>
+      <c r="D14" s="70" t="s">
+        <v>154</v>
+      </c>
       <c r="E14" s="68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <autoFilter ref="A13:F13"/>
+  <mergeCells count="2">
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -2299,6 +2299,24 @@
     <xf numFmtId="0" fontId="44" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,21 +2327,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2346,9 +2349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2758,197 +2758,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="89" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="89" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="89" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="91" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2967,13 +2967,13 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
@@ -3016,14 +3016,14 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="9" t="s">
         <v>130</v>
       </c>
@@ -3042,27 +3042,14 @@
       <c r="L11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -3079,6 +3066,19 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3089,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -3154,20 +3154,20 @@
         <v>49</v>
       </c>
       <c r="D2" s="29"/>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -3186,8 +3186,8 @@
         <v>53</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
@@ -3203,8 +3203,8 @@
         <v>55</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -3229,8 +3229,8 @@
         <v>57</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -3255,8 +3255,8 @@
         <v>59</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3281,8 +3281,8 @@
         <v>61</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3309,8 +3309,8 @@
         <v>63</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3334,8 +3334,8 @@
         <v>65</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3360,8 +3360,8 @@
         <v>67</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -3386,8 +3386,8 @@
         <v>69</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="J11" s="39"/>
@@ -3411,10 +3411,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -3858,7 +3858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3896,14 +3896,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="D6" s="99" t="s">
+      <c r="B6" s="99"/>
+      <c r="D6" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="100"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="D7" s="73" t="s">
@@ -3939,7 +3939,7 @@
       <c r="D13" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="85" t="s">
         <v>137</v>
       </c>
       <c r="F13" s="80" t="s">

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFF9B3-1117-1242-A6B0-46159F2EB8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -22,40 +23,196 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">多Table组合!$A$13:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">简单模板!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wangguanquan3</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B0E505C1-25F4-414D-AF62-A24D829BE624}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangguanquan3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">abc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>245</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{3321A32E-CC24-2144-A4C4-60BDB25AAA71}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这是一段批注</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Stone CL.</author>
     <author>CL.Stone</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-贵司内部订单号或者快递单号，或者FBA单号都可
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>贵司内部订单号或者快递单号，或者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FBA</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单号都可</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -64,38 +221,278 @@
         <r>
           <rPr>
             <sz val="14"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如果有一票多个FBA号码一起发货，多出的FBA号请填写在C12备注栏！
-如FBA123456788
-（注意，不要U）</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果有一票多个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FBA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号码一起发货，多出的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FBA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号请填写在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>C12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>备注栏！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">FBA123456788
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（注意，不要</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>U</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-货物准备交我司哪个仓库
-如果交惠州仓和厦门仓，请在D12备注栏说明：交惠州仓或交厦门仓
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>货物准备交我司哪个仓库</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果交惠州仓和厦门仓，请在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>D12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>备注栏说明：交惠州仓或交厦门仓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -103,22 +500,56 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-开户账号 
-如没有可联系客服</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>开户账号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如没有可联系客服</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -126,53 +557,264 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写贵司的系统登录账号</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写贵司的系统登录账号</t>
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单票清关:是欧洲不包税渠道，单票不包税清关;
-合并清关：几票合在一起清关（必须在C12备注栏写清楚哪几票合并）
-美国清关：美国的所有渠道都选择美国清关！
-包税：非美国的其他包税渠道
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单票清关</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是欧洲不包税渠道，单票不包税清关</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>合并清关：几票合在一起清关（必须在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>C12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>备注栏写清楚哪几票合并）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>美国清关：美国的所有渠道都选择美国清关！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包税：非美国的其他包税渠道</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写贵司的系统登录账号
-如无请找专属客服索取
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写贵司的系统登录账号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如无请找专属客服索取</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="12"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -180,23 +822,149 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-买单报关：一般是不具备出口权，不具备出口退税的条件，不需要国内退税的企业
-单独报关：国内需要退税的企业，需要提供报关资料（包含报关单 发票委托书 装箱单 申报要素等   
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>买单报关：一般是不具备出口权，不具备出口退税的条件，不需要国内退税的企业</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单独报关：国内需要退税的企业，需要提供报关资料（包含报关单</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>发票委托书</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>装箱单</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>申报要素等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">   
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -204,26 +972,308 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请按以下标准填写：
-英国按kg计费，全部填写英国；
-英国按卡派计费，填写亚马逊仓库代码（非亚马逊地址除外）
-美国海派、空运，按报价表的分区填写美西，美中，美东，FTW1属于美中填写FTW1作为目的国
-美国卡派：填写亚马逊仓库代码（非亚马逊地址除外）
-其他未列明国家 ，直接填写国家！（中文）</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请按以下标准填写：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英国按</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kg</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>计费，全部填写英国；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英国按卡派计费，填写亚马逊仓库代码（非亚马逊地址除外）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>美国海派、空运，按报价表的分区填写美西，美中，美东，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FTW1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>属于美中填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FTW1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作为目的国</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>美国卡派：填写亚马逊仓库代码（非亚马逊地址除外）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他未列明国家</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，直接填写国家！（中文）</t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -231,29 +1281,66 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自用VAT清关必填</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>VAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>清关必填</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -261,22 +1348,66 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-自用VAT清关必填
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>VAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>清关必填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -284,23 +1415,89 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-【必填】如果是亚马逊地址，必填亚马逊仓库代码；
-如果不是亚马逊地址，可不填
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【必填】如果是亚马逊地址，必填亚马逊仓库代码；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果不是亚马逊地址，可不填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -308,22 +1505,78 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-【必填】如果是亚马逊地址，必填亚马逊仓库代码；
-如果是非亚马逊地址，可不填</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【必填】如果是亚马逊地址，必填亚马逊仓库代码；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果是非亚马逊地址，可不填</t>
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -331,22 +1584,66 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-自用VAT清关必填
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>VAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>清关必填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -354,22 +1651,66 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-自用VAT清关必填
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>VAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>清关必填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=</t>
@@ -377,23 +1718,78 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-亚马逊地址可不填
-非亚马逊地址必填！！！
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>亚马逊地址可不填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>非亚马逊地址必填！！！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -401,56 +1797,517 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-亚马逊地址可不填或填贵司国内联系方式
-非亚马逊地址必填！！！</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>亚马逊地址可不填或填贵司国内联系方式</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>非亚马逊地址必填！！！</t>
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
             <sz val="16"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-需要填写邮箱的渠道有：
-1，比利时递延海运快递派
-2，比利时递延海运卡派
-3，美国海运卡派私人地址/海外仓地址</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>需要填写邮箱的渠道有：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，比利时递延海运快递派</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，比利时递延海运卡派</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，美国海运卡派私人地址</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>海外仓地址</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="1" shapeId="0">
+    <comment ref="A17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填外箱的FBA子单号（必须是19位）
-按箱填写！
-一箱货有多个产品，箱号重复填写即可
-非亚马逊地址本身没箱号的 ，可以直接写箱号，如1，2，3……
-不允许合并！！！不允许有回车！！</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填外箱的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FBA</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>子单号（必须是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>19</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按箱填写！</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一箱货有多个产品，箱号重复填写即可</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>非亚马逊地址本身没箱号的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，可以直接写箱号，如</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3……
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不允许合并！！！不允许有回车！！</t>
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -458,43 +2315,216 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-8位数的追踪编码</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>位数的追踪编码</t>
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="1" shapeId="0">
+    <comment ref="D17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>货物描述，相对精准的描述。</t>
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:
-产品大类：带电,带磁,纺织品等,普货直接输入普货两个字即可
-注意:多个类型注意用英文逗号隔开</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产品大类：带电</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带磁</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>纺织品等</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普货直接输入普货两个字即可</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注意</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个类型注意用英文逗号隔开</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -502,13 +2532,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="12"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -517,6 +2548,7 @@
           <rPr>
             <sz val="12"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -525,29 +2557,135 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="1" shapeId="0">
+    <comment ref="J17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
             <sz val="16"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填货物的单位CTN，即货物的箱数
-有多少箱就填多少箱，如果是混装产品对应箱数都写1
-不得合并单元格！
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填货物的单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CTN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，即货物的箱数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有多少箱就填多少箱，如果是混装产品对应箱数都写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不得合并单元格！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0" shapeId="0">
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -555,7 +2693,20 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -564,18 +2715,123 @@
         <r>
           <rPr>
             <sz val="14"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-英国空运/海运/铁路（英镑），
-德国（欧元），
-美国（美金）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英国空运</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>海运</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>铁路（英镑），</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>德国（欧元），</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>美国（美金）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -583,13 +2839,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="0" shapeId="0">
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -598,6 +2855,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -605,13 +2863,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -619,33 +2879,68 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-必须填写纯数字 不得有其他字符</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须填写纯数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不得有其他字符</t>
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="2" shapeId="0">
+    <comment ref="N17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>货物的高清图片</t>
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -655,6 +2950,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -662,13 +2958,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0">
+    <comment ref="S17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -676,22 +2974,57 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-更多其他需要说明的问题 
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多其他需要说明的问题</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -699,11 +3032,53 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-混装 箱号一样即可
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>混装</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>箱号一样即可</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -791,9 +3166,6 @@
   </si>
   <si>
     <t>${YzEntity.jpCode}</t>
-  </si>
-  <si>
-    <t>${YzEntity.jpName}</t>
   </si>
   <si>
     <t>${YzEntity.num}</t>
@@ -1380,22 +3752,26 @@
   <si>
     <t>v{t1.level}</t>
   </si>
+  <si>
+    <t>${YzEntity.jpName}</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;0.00_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;0.00_)"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1403,14 +3779,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1418,7 +3794,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,7 +3802,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1461,11 +3837,13 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="华文行楷"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1650,38 +4028,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1724,6 +4090,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="华文新魏"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1742,6 +4109,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文楷体"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1749,6 +4117,95 @@
       <color theme="1"/>
       <name val="幼圆"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2019,7 +4476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2029,31 +4486,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2074,169 +4528,153 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
@@ -2245,7 +4683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2254,88 +4692,88 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2345,16 +4783,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2392,7 +4830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2673,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2681,300 +5125,301 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="18.5" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="62" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="E2" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
     <col min="8" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="12" width="8.5703125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="26">
+      <c r="A1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="88" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="88" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="88" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="90" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="K6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:19" ht="45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="S8" s="8"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3"/>
@@ -2983,18 +5428,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3"/>
@@ -3003,50 +5437,39 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="9" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3080,712 +5503,713 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:Q2"/>
   </mergeCells>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="61" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" style="61" customWidth="1"/>
-    <col min="8" max="13" width="10.7109375" style="61" customWidth="1"/>
-    <col min="14" max="14" width="20" style="61" customWidth="1"/>
-    <col min="15" max="17" width="10.7109375" style="61" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="61" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="61" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="61" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="65"/>
-    <col min="23" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="34.33203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="57" customWidth="1"/>
+    <col min="5" max="7" width="18.5" style="57" customWidth="1"/>
+    <col min="8" max="13" width="10.6640625" style="57" customWidth="1"/>
+    <col min="14" max="14" width="20" style="57" customWidth="1"/>
+    <col min="15" max="17" width="10.6640625" style="57" customWidth="1"/>
+    <col min="18" max="18" width="17.5" style="57" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="57" customWidth="1"/>
+    <col min="20" max="21" width="14.83203125" style="57" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="60"/>
+    <col min="23" max="16384" width="9.1640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" s="26" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+    </row>
+    <row r="11" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="18"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="25" customFormat="1" ht="69" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="S17" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="W17" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="X17" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="56" customFormat="1" ht="77" customHeight="1">
+      <c r="A18" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:21" s="27" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-    </row>
-    <row r="8" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-    </row>
-    <row r="9" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-    </row>
-    <row r="10" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-    </row>
-    <row r="12" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-    </row>
-    <row r="13" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-    </row>
-    <row r="14" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-    </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-    </row>
-    <row r="16" spans="1:21" s="27" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="29"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" s="26" customFormat="1" ht="69" customHeight="1">
-      <c r="A17" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="V17" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="X17" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y17" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" s="55" t="s">
+      <c r="C18" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="21">
+        <v>10</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="60" customFormat="1" ht="77.099999999999994" customHeight="1">
-      <c r="A18" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="57">
+      <c r="L18" s="21">
         <v>10</v>
       </c>
-      <c r="J18" s="57">
-        <v>1</v>
-      </c>
-      <c r="K18" s="56" t="s">
+      <c r="M18" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="57">
-        <v>10</v>
-      </c>
-      <c r="M18" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="56" t="s">
+      <c r="P18" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q18" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="R18" s="56"/>
-      <c r="S18" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="T18" s="59">
+      <c r="T18" s="55">
         <f t="shared" ref="T18" si="0">I18*J18</f>
         <v>10</v>
       </c>
-      <c r="U18" s="59">
+      <c r="U18" s="55">
         <f t="shared" ref="U18" si="1">T18*L18</f>
         <v>100</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="W18" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="W18" s="56" t="s">
+      <c r="X18" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="X18" s="56" t="s">
+      <c r="Y18" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="Y18" s="56" t="s">
+      <c r="Z18" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="Z18" s="56" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="19" spans="1:26" s="63" customFormat="1" ht="77.099999999999994" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64">
+    <row r="19" spans="1:26" s="58" customFormat="1" ht="77" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59">
         <f>SUM(T18:T18)</f>
         <v>10</v>
       </c>
-      <c r="U19" s="64">
+      <c r="U19" s="59">
         <f>SUM(U18:U18)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="21" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="22" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="23" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="24" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="25" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="26" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="27" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="28" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="29" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="30" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="31" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="32" spans="1:26" ht="77.099999999999994" customHeight="1"/>
-    <row r="33" ht="77.099999999999994" customHeight="1"/>
-    <row r="34" ht="77.099999999999994" customHeight="1"/>
+    <row r="20" spans="1:26" ht="77" customHeight="1"/>
+    <row r="21" spans="1:26" ht="77" customHeight="1"/>
+    <row r="22" spans="1:26" ht="77" customHeight="1"/>
+    <row r="23" spans="1:26" ht="77" customHeight="1"/>
+    <row r="24" spans="1:26" ht="77" customHeight="1"/>
+    <row r="25" spans="1:26" ht="77" customHeight="1"/>
+    <row r="26" spans="1:26" ht="77" customHeight="1"/>
+    <row r="27" spans="1:26" ht="77" customHeight="1"/>
+    <row r="28" spans="1:26" ht="77" customHeight="1"/>
+    <row r="29" spans="1:26" ht="77" customHeight="1"/>
+    <row r="30" spans="1:26" ht="77" customHeight="1"/>
+    <row r="31" spans="1:26" ht="77" customHeight="1"/>
+    <row r="32" spans="1:26" ht="77" customHeight="1"/>
+    <row r="33" ht="77" customHeight="1"/>
+    <row r="34" ht="77" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E2:F11"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="E12:F12"/>
   </mergeCells>
+  <phoneticPr fontId="58" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"自营德国海外仓,美国自营海外仓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F13" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$F$10:$F$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"亚马逊地址,海外仓地址,商业地址,私人地址,监管仓地址,自营海外仓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"买单报关,单独报关,合并单独报关"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"不包税,包税,合并清关"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"广州1仓,坂田1仓,福永1仓,中山1仓,厦门1仓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"无,境内自主品牌,境内收购品牌,境外品牌(贴牌生产),境外品牌(其他)"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填写数字" sqref="M1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填写数字" sqref="M1" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填数字" sqref="L1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填数字" sqref="L1" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0.00001</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"美金,英镑,欧元"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>1</formula1>
       <formula2>11111111</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>9999999999999990</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="H1">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"普货,带木,带电,带电带磁,带磁,带液体,带膏体,带皮革,带干燥剂,带酒精棉"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"英国海外仓中转VAT卡航,英国海外仓中转PVA卡航,DPD中英卡航打单,美国FBA测试渠道"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3797,57 +6221,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="108" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
@@ -3855,123 +6280,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26">
+      <c r="A3" s="67" t="s">
         <v>148</v>
       </c>
+      <c r="B3" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="24">
-      <c r="A3" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="C5" s="66" t="s">
-        <v>127</v>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="C5" s="61" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="D6" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="101"/>
+      <c r="A6" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="D6" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="D7" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>145</v>
+      <c r="D7" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>158</v>
+      <c r="D8" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="66" t="s">
-        <v>128</v>
+      <c r="C10" s="61" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
-      <c r="A13" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="84" t="s">
+      <c r="E13" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="F13" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="80" t="s">
-        <v>138</v>
-      </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="C14" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="D14" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="E14" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="F14" s="63" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A13:F13"/>
+  <autoFilter ref="A13:F13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFF9B3-1117-1242-A6B0-46159F2EB8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3AA6B-35E9-0049-B596-79B25B7FA84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -5188,7 +5188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
@@ -5514,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -6191,7 +6191,7 @@
       <formula1>0</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="只能填数字" sqref="L1" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="只能填数字" sqref="L1" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0.00001</formula1>
       <formula2>99999</formula2>
     </dataValidation>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3AA6B-35E9-0049-B596-79B25B7FA84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494AB968-1EAC-E94F-8EAA-2BEEAE25E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,24 @@
     <sheet name="复杂模板" sheetId="6" r:id="rId3"/>
     <sheet name="内置函数" sheetId="3" r:id="rId4"/>
     <sheet name="多Table组合" sheetId="7" r:id="rId5"/>
+    <sheet name="级联下拉" sheetId="9" r:id="rId6"/>
+    <sheet name="__Sheet1_valid_671" sheetId="10" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">多Table组合!$A$13:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">简单模板!$A$1:$F$1</definedName>
+    <definedName name="A1市">__Sheet1_valid_671!$B$5:$D$5</definedName>
+    <definedName name="A2市">__Sheet1_valid_671!$B$6:$F$6</definedName>
+    <definedName name="A3市">__Sheet1_valid_671!$B$7:$C$7</definedName>
+    <definedName name="A省">__Sheet1_valid_671!$B$2:$D$2</definedName>
+    <definedName name="B1市">__Sheet1_valid_671!$B$8:$C$8</definedName>
+    <definedName name="B2市">__Sheet1_valid_671!$B$9:$D$9</definedName>
+    <definedName name="B3市">__Sheet1_valid_671!$B$10:$E$10</definedName>
+    <definedName name="B4市">__Sheet1_valid_671!$B$11:$C$11</definedName>
+    <definedName name="B省">__Sheet1_valid_671!$B$3:$E$3</definedName>
+    <definedName name="D1市">__Sheet1_valid_671!$B$12:$C$12</definedName>
+    <definedName name="D2市">__Sheet1_valid_671!$B$13:$E$13</definedName>
+    <definedName name="D省">__Sheet1_valid_671!$B$4:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3088,7 +3102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="206">
   <si>
     <t>供应商名称</t>
   </si>
@@ -3756,6 +3770,144 @@
     <t>${YzEntity.jpName}</t>
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>市区</t>
+  </si>
+  <si>
+    <t>市镇</t>
+  </si>
+  <si>
+    <t>A省</t>
+  </si>
+  <si>
+    <t>B省</t>
+  </si>
+  <si>
+    <t>D省</t>
+  </si>
+  <si>
+    <t>A1市</t>
+  </si>
+  <si>
+    <t>A2市</t>
+  </si>
+  <si>
+    <t>A3市</t>
+  </si>
+  <si>
+    <t>B1市</t>
+  </si>
+  <si>
+    <t>B2市</t>
+  </si>
+  <si>
+    <t>B3市</t>
+  </si>
+  <si>
+    <t>B4市</t>
+  </si>
+  <si>
+    <t>D1市</t>
+  </si>
+  <si>
+    <t>D2市</t>
+  </si>
+  <si>
+    <t>A1市-1</t>
+  </si>
+  <si>
+    <t>A1市-2</t>
+  </si>
+  <si>
+    <t>A1市-3</t>
+  </si>
+  <si>
+    <t>A2市-1</t>
+  </si>
+  <si>
+    <t>A2市-2</t>
+  </si>
+  <si>
+    <t>A2市-3</t>
+  </si>
+  <si>
+    <t>A2市-4</t>
+  </si>
+  <si>
+    <t>A2市-5</t>
+  </si>
+  <si>
+    <t>A3区-1</t>
+  </si>
+  <si>
+    <t>A3区-2</t>
+  </si>
+  <si>
+    <t>B1市-1</t>
+  </si>
+  <si>
+    <t>B1市-2</t>
+  </si>
+  <si>
+    <t>B2市-1</t>
+  </si>
+  <si>
+    <t>B2市-2</t>
+  </si>
+  <si>
+    <t>B2市-3</t>
+  </si>
+  <si>
+    <t>B3市-1</t>
+  </si>
+  <si>
+    <t>B3市-2</t>
+  </si>
+  <si>
+    <t>B3市-3</t>
+  </si>
+  <si>
+    <t>B3市-4</t>
+  </si>
+  <si>
+    <t>B4市-1</t>
+  </si>
+  <si>
+    <t>B4市-2</t>
+  </si>
+  <si>
+    <t>D1市-1</t>
+  </si>
+  <si>
+    <t>D1市-2</t>
+  </si>
+  <si>
+    <t>D2市-1</t>
+  </si>
+  <si>
+    <t>D2市-2</t>
+  </si>
+  <si>
+    <t>D2市-3</t>
+  </si>
+  <si>
+    <t>D2市-4</t>
+  </si>
+  <si>
+    <t>姓别</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓别2</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>${@list:sex}</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3767,7 +3919,7 @@
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;0.00_)"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4208,6 +4360,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -4468,15 +4635,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4740,6 +4910,12 @@
     <xf numFmtId="0" fontId="41" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4790,9 +4966,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{E5A76956-E192-3043-8D93-DA31559B60DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5203,197 +5380,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="83" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="85" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89" t="s">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
@@ -5412,13 +5589,13 @@
       <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19">
@@ -5439,14 +5616,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="8" t="s">
         <v>129</v>
       </c>
@@ -5465,11 +5642,11 @@
       <c r="L11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5514,7 +5691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5580,20 +5757,20 @@
         <v>48</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -5612,8 +5789,8 @@
         <v>52</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -5629,8 +5806,8 @@
         <v>54</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -5655,8 +5832,8 @@
         <v>56</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -5681,8 +5858,8 @@
         <v>58</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -5707,8 +5884,8 @@
         <v>60</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -5735,8 +5912,8 @@
         <v>62</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -5760,8 +5937,8 @@
         <v>64</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5786,8 +5963,8 @@
         <v>66</v>
       </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -5812,8 +5989,8 @@
         <v>68</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="J11" s="37"/>
@@ -5837,10 +6014,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -6321,14 +6498,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="D6" s="95" t="s">
+      <c r="B6" s="96"/>
+      <c r="D6" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="D7" s="68" t="s">
@@ -6401,4 +6578,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37A927-EDE2-3341-B6C5-AF15455218A6}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" customHeight="1">
+      <c r="A1" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{EF5D4D4F-8ACC-2B46-BE9B-B4BF57DA2BFB}">
+      <formula1>INDIRECT(A2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入姓别" sqref="E2" xr:uid="{BA5772EF-9E8C-F84C-8CDB-BA10EE42EAB8}">
+      <formula1>"未知,男,女"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D22E266-E213-6140-BA0F-C54877B49527}">
+          <x14:formula1>
+            <xm:f>__Sheet1_valid_671!$A$1:$C$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9914FA-D6D4-3642-B437-FEA0ED3A2AB7}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494AB968-1EAC-E94F-8EAA-2BEEAE25E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9FB58-4AD0-C445-8179-297E511A0C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3102,7 +3102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="206">
   <si>
     <t>供应商名称</t>
   </si>
@@ -4376,7 +4376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,6 +4484,12 @@
           <color rgb="FF227447"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -4646,7 +4652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4913,34 +4919,31 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4964,6 +4967,27 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5380,197 +5404,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="85" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="85" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="87" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
@@ -5589,13 +5613,13 @@
       <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19">
@@ -5616,14 +5640,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="8" t="s">
         <v>129</v>
       </c>
@@ -5642,14 +5666,27 @@
       <c r="L11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -5666,19 +5703,6 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5757,20 +5781,20 @@
         <v>48</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -5789,8 +5813,8 @@
         <v>52</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -5806,8 +5830,8 @@
         <v>54</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -5832,8 +5856,8 @@
         <v>56</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -5858,8 +5882,8 @@
         <v>58</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -5884,8 +5908,8 @@
         <v>60</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -5912,8 +5936,8 @@
         <v>62</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -5937,8 +5961,8 @@
         <v>64</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5963,8 +5987,8 @@
         <v>66</v>
       </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -5989,8 +6013,8 @@
         <v>68</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="J11" s="37"/>
@@ -6014,10 +6038,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -6498,14 +6522,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="D6" s="97" t="s">
+      <c r="B6" s="95"/>
+      <c r="D6" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="D7" s="68" t="s">
@@ -6582,65 +6606,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37A927-EDE2-3341-B6C5-AF15455218A6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="4" width="10.83203125" style="81"/>
+    <col min="5" max="5" width="12.6640625" style="81" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="81" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>204</v>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>205</v>
+    <row r="2" spans="1:6" ht="19" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1">
+      <c r="A5" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B7" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C7" s="102" t="s">
         <v>181</v>
       </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{EF5D4D4F-8ACC-2B46-BE9B-B4BF57DA2BFB}">
-      <formula1>INDIRECT(A2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入姓别" sqref="E6" xr:uid="{BA5772EF-9E8C-F84C-8CDB-BA10EE42EAB8}">
+      <formula1>"未知,男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入姓别" sqref="E2" xr:uid="{BA5772EF-9E8C-F84C-8CDB-BA10EE42EAB8}">
-      <formula1>"未知,男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C1048576" xr:uid="{EF5D4D4F-8ACC-2B46-BE9B-B4BF57DA2BFB}">
+      <formula1>INDIRECT(A6)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6651,7 +6740,7 @@
           <x14:formula1>
             <xm:f>__Sheet1_valid_671!$A$1:$C$1</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A6:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9FB58-4AD0-C445-8179-297E511A0C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006AD85-0F50-A64E-9400-B9F991067F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单模板" sheetId="4" r:id="rId1"/>
@@ -19,23 +19,23 @@
     <sheet name="内置函数" sheetId="3" r:id="rId4"/>
     <sheet name="多Table组合" sheetId="7" r:id="rId5"/>
     <sheet name="级联下拉" sheetId="9" r:id="rId6"/>
-    <sheet name="__Sheet1_valid_671" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="级联下拉_valid" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">多Table组合!$A$13:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">简单模板!$A$1:$F$1</definedName>
-    <definedName name="A1市">__Sheet1_valid_671!$B$5:$D$5</definedName>
-    <definedName name="A2市">__Sheet1_valid_671!$B$6:$F$6</definedName>
-    <definedName name="A3市">__Sheet1_valid_671!$B$7:$C$7</definedName>
-    <definedName name="A省">__Sheet1_valid_671!$B$2:$D$2</definedName>
-    <definedName name="B1市">__Sheet1_valid_671!$B$8:$C$8</definedName>
-    <definedName name="B2市">__Sheet1_valid_671!$B$9:$D$9</definedName>
-    <definedName name="B3市">__Sheet1_valid_671!$B$10:$E$10</definedName>
-    <definedName name="B4市">__Sheet1_valid_671!$B$11:$C$11</definedName>
-    <definedName name="B省">__Sheet1_valid_671!$B$3:$E$3</definedName>
-    <definedName name="D1市">__Sheet1_valid_671!$B$12:$C$12</definedName>
-    <definedName name="D2市">__Sheet1_valid_671!$B$13:$E$13</definedName>
-    <definedName name="D省">__Sheet1_valid_671!$B$4:$C$4</definedName>
+    <definedName name="A1市">级联下拉_valid!$B$5:$D$5</definedName>
+    <definedName name="A2市">级联下拉_valid!$B$6:$F$6</definedName>
+    <definedName name="A3市">级联下拉_valid!$B$7:$C$7</definedName>
+    <definedName name="A省">级联下拉_valid!$B$2:$D$2</definedName>
+    <definedName name="B1市">级联下拉_valid!$B$8:$C$8</definedName>
+    <definedName name="B2市">级联下拉_valid!$B$9:$D$9</definedName>
+    <definedName name="B3市">级联下拉_valid!$B$10:$E$10</definedName>
+    <definedName name="B4市">级联下拉_valid!$B$11:$C$11</definedName>
+    <definedName name="B省">级联下拉_valid!$B$3:$E$3</definedName>
+    <definedName name="D1市">级联下拉_valid!$B$12:$C$12</definedName>
+    <definedName name="D2市">级联下拉_valid!$B$13:$E$13</definedName>
+    <definedName name="D省">级联下拉_valid!$B$4:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4919,6 +4919,42 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4929,21 +4965,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4967,27 +4988,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5321,7 +5321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5425,176 +5425,176 @@
       <c r="Q1" s="90"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="86" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="86" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="86" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="88" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
@@ -5613,13 +5613,13 @@
       <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19">
@@ -5640,14 +5640,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="8" t="s">
         <v>129</v>
       </c>
@@ -5666,27 +5666,14 @@
       <c r="L11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -5703,6 +5690,19 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5781,20 +5781,20 @@
         <v>48</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -5813,8 +5813,8 @@
         <v>52</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -5830,8 +5830,8 @@
         <v>54</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -5856,8 +5856,8 @@
         <v>56</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -5882,8 +5882,8 @@
         <v>58</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -5908,8 +5908,8 @@
         <v>60</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -5936,8 +5936,8 @@
         <v>62</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -5961,8 +5961,8 @@
         <v>64</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5987,8 +5987,8 @@
         <v>66</v>
       </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -6013,8 +6013,8 @@
         <v>68</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="J11" s="37"/>
@@ -6038,10 +6038,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -6522,14 +6522,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="D6" s="96" t="s">
+      <c r="B6" s="102"/>
+      <c r="D6" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="D7" s="68" t="s">
@@ -6608,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37A927-EDE2-3341-B6C5-AF15455218A6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
@@ -6619,22 +6619,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="85" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6659,68 +6659,68 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" ht="19" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="103" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="87" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
@@ -6738,7 +6738,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D22E266-E213-6140-BA0F-C54877B49527}">
           <x14:formula1>
-            <xm:f>__Sheet1_valid_671!$A$1:$C$1</xm:f>
+            <xm:f>级联下拉_valid!$A$1:$C$1</xm:f>
           </x14:formula1>
           <xm:sqref>A6:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/src/test/resources/template2.xlsx
+++ b/src/test/resources/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006AD85-0F50-A64E-9400-B9F991067F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5C2224-A5D9-0B40-A2A0-8E9362DDDB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23780" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="内置函数" sheetId="3" r:id="rId4"/>
     <sheet name="多Table组合" sheetId="7" r:id="rId5"/>
     <sheet name="级联下拉" sheetId="9" r:id="rId6"/>
-    <sheet name="级联下拉_valid" sheetId="10" r:id="rId7"/>
+    <sheet name="级联下拉_valid" sheetId="10" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">多Table组合!$A$13:$F$13</definedName>
@@ -4940,31 +4940,31 @@
     <xf numFmtId="0" fontId="62" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -5404,197 +5404,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="26">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="91" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="92" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="91" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92" t="s">
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="93" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97" t="s">
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:19" ht="45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
@@ -5613,13 +5613,13 @@
       <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="94" t="s">
+      <c r="M8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19">
@@ -5640,14 +5640,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="60">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="8" t="s">
         <v>129</v>
       </c>
@@ -5666,14 +5666,27 @@
       <c r="L11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -5690,19 +5703,6 @@
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:F7"/>
     <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
